--- a/DBScripts/Application status tracker.xlsx
+++ b/DBScripts/Application status tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>User</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Issues in Payment details</t>
+  </si>
+  <si>
+    <t>Need to show pic as thumbnail</t>
+  </si>
+  <si>
+    <t>replace select file button with img</t>
+  </si>
+  <si>
+    <t>After deployment it should use Environment.Prod</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,22 +156,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,17 +464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -461,43 +482,50 @@
     <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -509,141 +537,150 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="I21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DBScripts/Application status tracker.xlsx
+++ b/DBScripts/Application status tracker.xlsx
@@ -19,85 +19,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Expense</t>
   </si>
   <si>
-    <t>Coin</t>
-  </si>
-  <si>
-    <t>Business</t>
+    <t>Module/Action</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>CommonList</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>SpecialOccasion</t>
+  </si>
+  <si>
+    <t>API FOR THE BELOW SHOULD WORK PROPERLY</t>
+  </si>
+  <si>
+    <t>CoinNoteCollection</t>
+  </si>
+  <si>
+    <t>View all</t>
+  </si>
+  <si>
+    <t>View List with Param</t>
+  </si>
+  <si>
+    <t>View Details with Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add New with request </t>
+  </si>
+  <si>
+    <t>Update Existing with request</t>
+  </si>
+  <si>
+    <t>Delete using userid</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Done, need to test</t>
+  </si>
+  <si>
+    <t>ExpenseSummary</t>
+  </si>
+  <si>
+    <t>out parameter issue</t>
+  </si>
+  <si>
+    <t>UserPermission</t>
+  </si>
+  <si>
+    <t>For running application</t>
   </si>
   <si>
     <t>View List</t>
   </si>
   <si>
-    <t>View Details</t>
-  </si>
-  <si>
-    <t>Add New</t>
-  </si>
-  <si>
-    <t>Update Existing</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Module/Action</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Issue in Photo update</t>
-  </si>
-  <si>
-    <t>Need to work</t>
-  </si>
-  <si>
-    <t>Month is not working</t>
-  </si>
-  <si>
-    <t>Expense Summary</t>
+    <t>Update with request</t>
+  </si>
+  <si>
+    <t>Delete using Id &amp; UserId</t>
+  </si>
+  <si>
+    <t>Some SP side issue is there 
+to update balance</t>
+  </si>
+  <si>
+    <t>Clear Filters</t>
+  </si>
+  <si>
+    <t>Need to verify thouroghly</t>
   </si>
   <si>
     <t>Expense Report</t>
-  </si>
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Issues in Payment details</t>
-  </si>
-  <si>
-    <t>Need to show pic as thumbnail</t>
-  </si>
-  <si>
-    <t>replace select file button with img</t>
-  </si>
-  <si>
-    <t>After deployment it should use Environment.Prod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +132,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,17 +189,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -169,19 +226,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,223 +540,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+    <row r="1" spans="2:9" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="B1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="15" spans="2:9" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DBScripts/Application status tracker.xlsx
+++ b/DBScripts/Application status tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="30">
   <si>
     <t>User</t>
   </si>
@@ -543,7 +543,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +987,9 @@
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>

--- a/DBScripts/Application status tracker.xlsx
+++ b/DBScripts/Application status tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="31">
   <si>
     <t>User</t>
   </si>
@@ -106,10 +106,13 @@
     <t>Clear Filters</t>
   </si>
   <si>
-    <t>Need to verify thouroghly</t>
-  </si>
-  <si>
     <t>Expense Report</t>
+  </si>
+  <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>need to work on sp to get next balance for null balance</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,16 +857,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>26</v>
@@ -875,18 +878,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>4</v>
@@ -903,13 +906,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>4</v>
